--- a/src/services/excel/template.xlsx
+++ b/src/services/excel/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD4B48-6959-4887-B182-0465FD9C938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4B51D6-B346-44A1-A80C-FF549A8B8086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -362,16 +362,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +431,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,7 +735,7 @@
   <dimension ref="B1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -745,10 +745,10 @@
     <col min="3" max="4" width="22.88671875" style="14" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="15" style="16" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15" style="15" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" style="7" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" style="14" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" style="7" customWidth="1"/>
@@ -761,9 +761,9 @@
       <c r="B1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -782,16 +782,16 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -803,7 +803,7 @@
       <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1047,138 +1047,138 @@
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="31">
         <f>SUM(E6+H6+K6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:11" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <f>SUM(D6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="38"/>
-      <c r="D14" s="44" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="3:11" s="1" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="3:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31">
         <f>D16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <f>E16+F16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31">
         <f t="shared" ref="H17:H20" si="0">D17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <f t="shared" ref="I17:I20" si="1">E17+F17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="34"/>
-      <c r="H18" s="33">
+      <c r="F18" s="32"/>
+      <c r="H18" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="34"/>
-      <c r="H19" s="33">
+      <c r="F19" s="32"/>
+      <c r="H19" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="34"/>
-      <c r="H20" s="33">
+      <c r="F20" s="32"/>
+      <c r="H20" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="21"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="21"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="21"/>
+      <c r="F24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1199,8 +1199,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
@@ -1211,17 +1211,17 @@
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
     <col min="13" max="13" width="23.5546875" customWidth="1"/>
     <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="17" width="17.109375" style="40" customWidth="1"/>
+    <col min="15" max="17" width="17.109375" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2023</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
@@ -1232,151 +1232,151 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="43"/>
+      <c r="J4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="2:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="28"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="21"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="2:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="21"/>
+      <c r="J6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="2:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="21"/>
+      <c r="J7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="21"/>
+      <c r="J8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="2:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="21"/>
+      <c r="J9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/services/excel/template.xlsx
+++ b/src/services/excel/template.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4B51D6-B346-44A1-A80C-FF549A8B8086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3464B7C-ADD9-4AE7-A86D-69DBF933E48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KZT" sheetId="1" r:id="rId1"/>
-    <sheet name="Обменники" sheetId="2" r:id="rId2"/>
-    <sheet name="Отчет" sheetId="4" r:id="rId3"/>
-    <sheet name="Банк" sheetId="10" r:id="rId4"/>
+    <sheet name="template" sheetId="12" r:id="rId1"/>
+    <sheet name="KZT" sheetId="1" r:id="rId2"/>
+    <sheet name="Обменники" sheetId="2" r:id="rId3"/>
+    <sheet name="Отчет" sheetId="4" r:id="rId4"/>
+    <sheet name="Банк" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KZT!$B$2:$N$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Обменники!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KZT!$B$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">template!$B$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Обменники!$B$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase">[1]template!$F$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Order ID</t>
   </si>
@@ -215,7 +217,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -429,14 +431,14 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -731,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9556090D-FFE4-4172-82A4-654A14B8D164}">
   <dimension ref="B1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -745,7 +747,7 @@
     <col min="3" max="4" width="22.88671875" style="14" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="42" customWidth="1"/>
     <col min="8" max="8" width="15.109375" style="15" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="15" customWidth="1"/>
     <col min="10" max="10" width="15" style="15" customWidth="1"/>
@@ -782,7 +784,7 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="17" t="s">
@@ -819,6 +821,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:N2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="22.88671875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15" style="15" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="49.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:N2" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N3">
+      <sortCondition ref="G2"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K2"/>
   <sheetViews>
@@ -880,7 +970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:K24"/>
   <sheetViews>
@@ -1063,10 +1153,10 @@
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="36"/>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="3:11" s="1" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1188,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453FD18C-D3F2-4316-8F6F-7C849D962743}">
   <dimension ref="B2:Q10"/>
   <sheetViews>
